--- a/data/Contact_Recreation/RangitikeiEstuaryatRiverMouth_854799f621.xlsx
+++ b/data/Contact_Recreation/RangitikeiEstuaryatRiverMouth_854799f621.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="152">
   <si>
     <t>site name</t>
   </si>
@@ -49,376 +49,409 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>&lt;4</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7490</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>2760</t>
-  </si>
-  <si>
-    <t>6020</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>18600</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>15500</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1722</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>393</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>530.0</t>
+  </si>
+  <si>
+    <t>&lt;4.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7490.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>839.0</t>
+  </si>
+  <si>
+    <t>1220.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>544.0</t>
+  </si>
+  <si>
+    <t>2140.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>529.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>3450.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>598.0</t>
+  </si>
+  <si>
+    <t>327.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>1162.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>1450.0</t>
+  </si>
+  <si>
+    <t>1935.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>1034.0</t>
+  </si>
+  <si>
+    <t>2480.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>743.0</t>
+  </si>
+  <si>
+    <t>483.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>596.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>1236.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>2760.0</t>
+  </si>
+  <si>
+    <t>6020.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>2610.0</t>
+  </si>
+  <si>
+    <t>1039.0</t>
+  </si>
+  <si>
+    <t>18600.0</t>
+  </si>
+  <si>
+    <t>473.0</t>
+  </si>
+  <si>
+    <t>1414.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>703.0</t>
+  </si>
+  <si>
+    <t>749.0</t>
+  </si>
+  <si>
+    <t>1081.0</t>
+  </si>
+  <si>
+    <t>15500.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>1722.0</t>
+  </si>
+  <si>
+    <t>733.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>744.0</t>
+  </si>
+  <si>
+    <t>457.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>1095.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>2143.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>1153.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>1515.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>393.0</t>
+  </si>
+  <si>
+    <t>4611.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>3873.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>862.0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>488.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>287.0</t>
+  </si>
+  <si>
+    <t>15531.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -431,6 +464,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -795,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,13 +880,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -870,13 +906,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -896,13 +932,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -922,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -948,13 +984,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -974,13 +1010,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1000,13 +1036,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1026,13 +1062,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1052,13 +1088,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1078,13 +1114,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1104,13 +1140,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1130,13 +1166,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1156,13 +1192,13 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1182,13 +1218,13 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1208,13 +1244,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1234,13 +1270,13 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1260,13 +1296,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1286,13 +1322,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1312,13 +1348,13 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1338,13 +1374,13 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1364,13 +1400,13 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1390,13 +1426,13 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1416,13 +1452,13 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1442,13 +1478,13 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1468,13 +1504,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1494,13 +1530,13 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1520,13 +1556,13 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1546,13 +1582,13 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1572,13 +1608,13 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1598,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1624,13 +1660,13 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1650,13 +1686,13 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1676,13 +1712,13 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1702,13 +1738,13 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1728,13 +1764,13 @@
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1754,13 +1790,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1780,13 +1816,13 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1806,13 +1842,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1832,13 +1868,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1858,13 +1894,13 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1884,13 +1920,13 @@
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1910,13 +1946,13 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1936,13 +1972,13 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1962,13 +1998,13 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1988,13 +2024,13 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2014,13 +2050,13 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2040,13 +2076,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2066,13 +2102,13 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2092,13 +2128,13 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2118,13 +2154,13 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2144,13 +2180,13 @@
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2170,13 +2206,13 @@
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2196,13 +2232,13 @@
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2222,13 +2258,13 @@
         <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2248,13 +2284,13 @@
         <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2274,13 +2310,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2300,13 +2336,13 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2326,13 +2362,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2352,13 +2388,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2378,13 +2414,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2404,13 +2440,13 @@
         <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2430,13 +2466,13 @@
         <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2456,13 +2492,13 @@
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2482,13 +2518,13 @@
         <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2508,13 +2544,13 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2534,13 +2570,13 @@
         <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2560,13 +2596,13 @@
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -2586,13 +2622,13 @@
         <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G69" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2612,13 +2648,13 @@
         <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2638,13 +2674,13 @@
         <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2664,13 +2700,13 @@
         <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2690,13 +2726,13 @@
         <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2716,13 +2752,13 @@
         <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G74" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2742,13 +2778,13 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2768,13 +2804,13 @@
         <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2794,13 +2830,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G77" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2820,13 +2856,13 @@
         <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2846,13 +2882,13 @@
         <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2872,13 +2908,13 @@
         <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G80" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2898,13 +2934,13 @@
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G81" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2924,13 +2960,13 @@
         <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G82" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2950,13 +2986,13 @@
         <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2976,13 +3012,13 @@
         <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3002,13 +3038,13 @@
         <v>40</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3028,13 +3064,13 @@
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3054,13 +3090,13 @@
         <v>69</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3080,13 +3116,13 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3106,13 +3142,13 @@
         <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3132,13 +3168,13 @@
         <v>71</v>
       </c>
       <c r="E90" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3158,13 +3194,13 @@
         <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3184,13 +3220,13 @@
         <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3210,13 +3246,13 @@
         <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F93" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3236,13 +3272,13 @@
         <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F94" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3262,13 +3298,13 @@
         <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F95" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G95" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3288,13 +3324,13 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F96" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G96" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3314,13 +3350,13 @@
         <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G97" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3340,13 +3376,13 @@
         <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3366,13 +3402,13 @@
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F99" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G99" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3392,13 +3428,13 @@
         <v>63</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F100" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G100" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3418,13 +3454,13 @@
         <v>78</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H101">
         <v>500</v>
@@ -3444,13 +3480,13 @@
         <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F102" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3470,13 +3506,13 @@
         <v>79</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G103" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3496,13 +3532,13 @@
         <v>55</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3522,13 +3558,13 @@
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3548,13 +3584,13 @@
         <v>47</v>
       </c>
       <c r="E106" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3574,13 +3610,13 @@
         <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3600,13 +3636,13 @@
         <v>81</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3626,13 +3662,13 @@
         <v>82</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3652,13 +3688,13 @@
         <v>83</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3678,13 +3714,13 @@
         <v>84</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3704,13 +3740,13 @@
         <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G112" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3730,13 +3766,13 @@
         <v>40</v>
       </c>
       <c r="E113" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G113" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3756,13 +3792,13 @@
         <v>86</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3782,13 +3818,13 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F115" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G115" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3808,13 +3844,13 @@
         <v>87</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G116" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3834,13 +3870,13 @@
         <v>62</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G117" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3860,13 +3896,13 @@
         <v>47</v>
       </c>
       <c r="E118" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3886,13 +3922,13 @@
         <v>88</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G119" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3912,13 +3948,13 @@
         <v>89</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3938,13 +3974,13 @@
         <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G121" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3964,13 +4000,13 @@
         <v>90</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G122" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3990,13 +4026,13 @@
         <v>91</v>
       </c>
       <c r="E123" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4016,13 +4052,13 @@
         <v>92</v>
       </c>
       <c r="E124" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4042,13 +4078,13 @@
         <v>93</v>
       </c>
       <c r="E125" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G125" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4068,13 +4104,13 @@
         <v>94</v>
       </c>
       <c r="E126" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G126" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4094,13 +4130,13 @@
         <v>95</v>
       </c>
       <c r="E127" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G127" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4120,13 +4156,13 @@
         <v>78</v>
       </c>
       <c r="E128" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G128" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4146,13 +4182,13 @@
         <v>84</v>
       </c>
       <c r="E129" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G129" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4172,13 +4208,13 @@
         <v>96</v>
       </c>
       <c r="E130" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G130" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4198,13 +4234,13 @@
         <v>97</v>
       </c>
       <c r="E131" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G131" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4224,13 +4260,13 @@
         <v>98</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G132" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4250,13 +4286,13 @@
         <v>75</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G133" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4276,13 +4312,13 @@
         <v>99</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G134" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4302,13 +4338,13 @@
         <v>55</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F135" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4328,13 +4364,13 @@
         <v>45</v>
       </c>
       <c r="E136" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F136" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G136" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4354,13 +4390,13 @@
         <v>100</v>
       </c>
       <c r="E137" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G137" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4380,13 +4416,13 @@
         <v>101</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F138" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G138" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4406,13 +4442,13 @@
         <v>95</v>
       </c>
       <c r="E139" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G139" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4432,13 +4468,13 @@
         <v>102</v>
       </c>
       <c r="E140" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F140" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G140" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4458,13 +4494,13 @@
         <v>103</v>
       </c>
       <c r="E141" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F141" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G141" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4484,13 +4520,13 @@
         <v>40</v>
       </c>
       <c r="E142" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F142" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G142" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4510,13 +4546,13 @@
         <v>104</v>
       </c>
       <c r="E143" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G143" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4536,13 +4572,13 @@
         <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F144" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G144" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4562,13 +4598,13 @@
         <v>47</v>
       </c>
       <c r="E145" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G145" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4588,13 +4624,13 @@
         <v>105</v>
       </c>
       <c r="E146" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F146" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G146" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4614,13 +4650,13 @@
         <v>106</v>
       </c>
       <c r="E147" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G147" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4640,13 +4676,13 @@
         <v>63</v>
       </c>
       <c r="E148" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F148" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G148" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4666,13 +4702,13 @@
         <v>107</v>
       </c>
       <c r="E149" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F149" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G149" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4692,13 +4728,13 @@
         <v>108</v>
       </c>
       <c r="E150" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F150" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G150" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4718,13 +4754,13 @@
         <v>57</v>
       </c>
       <c r="E151" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F151" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G151" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4744,13 +4780,13 @@
         <v>109</v>
       </c>
       <c r="E152" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F152" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G152" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4770,13 +4806,13 @@
         <v>110</v>
       </c>
       <c r="E153" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F153" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G153" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4796,13 +4832,13 @@
         <v>111</v>
       </c>
       <c r="E154" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F154" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4822,13 +4858,13 @@
         <v>32</v>
       </c>
       <c r="E155" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F155" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G155" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4848,13 +4884,13 @@
         <v>46</v>
       </c>
       <c r="E156" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F156" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G156" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4874,13 +4910,13 @@
         <v>112</v>
       </c>
       <c r="E157" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F157" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G157" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4900,13 +4936,13 @@
         <v>113</v>
       </c>
       <c r="E158" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F158" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G158" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4926,13 +4962,13 @@
         <v>114</v>
       </c>
       <c r="E159" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G159" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4952,13 +4988,13 @@
         <v>35</v>
       </c>
       <c r="E160" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F160" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G160" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4978,13 +5014,13 @@
         <v>40</v>
       </c>
       <c r="E161" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F161" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G161" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5004,13 +5040,13 @@
         <v>115</v>
       </c>
       <c r="E162" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F162" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G162" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5030,13 +5066,13 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F163" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G163" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5056,13 +5092,13 @@
         <v>52</v>
       </c>
       <c r="E164" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F164" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G164" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5082,13 +5118,13 @@
         <v>59</v>
       </c>
       <c r="E165" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G165" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5108,13 +5144,13 @@
         <v>116</v>
       </c>
       <c r="E166" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F166" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G166" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5134,13 +5170,13 @@
         <v>117</v>
       </c>
       <c r="E167" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F167" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G167" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5160,13 +5196,13 @@
         <v>32</v>
       </c>
       <c r="E168" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F168" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G168" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5186,13 +5222,13 @@
         <v>47</v>
       </c>
       <c r="E169" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F169" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G169" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5212,13 +5248,13 @@
         <v>118</v>
       </c>
       <c r="E170" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F170" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G170" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5238,13 +5274,13 @@
         <v>119</v>
       </c>
       <c r="E171" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F171" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G171" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5264,13 +5300,13 @@
         <v>55</v>
       </c>
       <c r="E172" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F172" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G172" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5290,13 +5326,13 @@
         <v>120</v>
       </c>
       <c r="E173" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F173" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G173" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5316,13 +5352,13 @@
         <v>47</v>
       </c>
       <c r="E174" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F174" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G174" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5342,13 +5378,13 @@
         <v>121</v>
       </c>
       <c r="E175" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F175" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G175" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5368,13 +5404,13 @@
         <v>122</v>
       </c>
       <c r="E176" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F176" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G176" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5394,13 +5430,13 @@
         <v>123</v>
       </c>
       <c r="E177" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F177" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G177" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5420,13 +5456,13 @@
         <v>124</v>
       </c>
       <c r="E178" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F178" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G178" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5446,13 +5482,13 @@
         <v>125</v>
       </c>
       <c r="E179" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F179" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G179" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5472,13 +5508,13 @@
         <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F180" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G180" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5498,13 +5534,13 @@
         <v>127</v>
       </c>
       <c r="E181" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F181" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G181" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5524,13 +5560,13 @@
         <v>128</v>
       </c>
       <c r="E182" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F182" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G182" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5550,13 +5586,13 @@
         <v>104</v>
       </c>
       <c r="E183" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F183" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G183" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5576,13 +5612,13 @@
         <v>120</v>
       </c>
       <c r="E184" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F184" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G184" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5602,13 +5638,13 @@
         <v>129</v>
       </c>
       <c r="E185" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F185" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G185" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5628,13 +5664,13 @@
         <v>130</v>
       </c>
       <c r="E186" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F186" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G186" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5654,13 +5690,13 @@
         <v>32</v>
       </c>
       <c r="E187" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F187" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G187" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5680,13 +5716,13 @@
         <v>131</v>
       </c>
       <c r="E188" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F188" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G188" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5706,13 +5742,13 @@
         <v>48</v>
       </c>
       <c r="E189" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F189" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G189" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5732,13 +5768,13 @@
         <v>132</v>
       </c>
       <c r="E190" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F190" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G190" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5758,13 +5794,13 @@
         <v>133</v>
       </c>
       <c r="E191" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F191" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G191" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5784,15 +5820,665 @@
         <v>134</v>
       </c>
       <c r="E192" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" t="s">
+        <v>149</v>
+      </c>
+      <c r="G192" t="s">
+        <v>151</v>
+      </c>
+      <c r="H192">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45601.52708333333</v>
+      </c>
+      <c r="D193" t="s">
         <v>135</v>
       </c>
-      <c r="F192" t="s">
+      <c r="E193" t="s">
+        <v>146</v>
+      </c>
+      <c r="F193" t="s">
+        <v>150</v>
+      </c>
+      <c r="G193" t="s">
+        <v>151</v>
+      </c>
+      <c r="H193">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45608.49861111111</v>
+      </c>
+      <c r="D194" t="s">
+        <v>48</v>
+      </c>
+      <c r="E194" t="s">
+        <v>146</v>
+      </c>
+      <c r="F194" t="s">
+        <v>150</v>
+      </c>
+      <c r="G194" t="s">
+        <v>151</v>
+      </c>
+      <c r="H194">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45615.48611111111</v>
+      </c>
+      <c r="D195" t="s">
+        <v>136</v>
+      </c>
+      <c r="E195" t="s">
+        <v>146</v>
+      </c>
+      <c r="F195" t="s">
+        <v>150</v>
+      </c>
+      <c r="G195" t="s">
+        <v>151</v>
+      </c>
+      <c r="H195">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45621.51180555556</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>146</v>
+      </c>
+      <c r="F196" t="s">
+        <v>150</v>
+      </c>
+      <c r="G196" t="s">
+        <v>151</v>
+      </c>
+      <c r="H196">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45629.5375</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E197" t="s">
+        <v>146</v>
+      </c>
+      <c r="F197" t="s">
+        <v>150</v>
+      </c>
+      <c r="G197" t="s">
+        <v>151</v>
+      </c>
+      <c r="H197">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45636.52083333334</v>
+      </c>
+      <c r="D198" t="s">
+        <v>48</v>
+      </c>
+      <c r="E198" t="s">
+        <v>146</v>
+      </c>
+      <c r="F198" t="s">
+        <v>150</v>
+      </c>
+      <c r="G198" t="s">
+        <v>151</v>
+      </c>
+      <c r="H198">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45643.55069444444</v>
+      </c>
+      <c r="D199" t="s">
+        <v>137</v>
+      </c>
+      <c r="E199" t="s">
+        <v>146</v>
+      </c>
+      <c r="F199" t="s">
+        <v>150</v>
+      </c>
+      <c r="G199" t="s">
+        <v>151</v>
+      </c>
+      <c r="H199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45649.50069444445</v>
+      </c>
+      <c r="D200" t="s">
+        <v>47</v>
+      </c>
+      <c r="E200" t="s">
+        <v>146</v>
+      </c>
+      <c r="F200" t="s">
+        <v>150</v>
+      </c>
+      <c r="G200" t="s">
+        <v>151</v>
+      </c>
+      <c r="H200">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45656.50208333333</v>
+      </c>
+      <c r="D201" t="s">
         <v>138</v>
       </c>
-      <c r="G192" t="s">
+      <c r="E201" t="s">
+        <v>146</v>
+      </c>
+      <c r="F201" t="s">
+        <v>150</v>
+      </c>
+      <c r="G201" t="s">
+        <v>151</v>
+      </c>
+      <c r="H201">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45664.49027777778</v>
+      </c>
+      <c r="D202" t="s">
         <v>139</v>
       </c>
-      <c r="H192">
+      <c r="E202" t="s">
+        <v>146</v>
+      </c>
+      <c r="F202" t="s">
+        <v>150</v>
+      </c>
+      <c r="G202" t="s">
+        <v>151</v>
+      </c>
+      <c r="H202">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45671.51180555556</v>
+      </c>
+      <c r="D203" t="s">
+        <v>140</v>
+      </c>
+      <c r="E203" t="s">
+        <v>146</v>
+      </c>
+      <c r="F203" t="s">
+        <v>150</v>
+      </c>
+      <c r="G203" t="s">
+        <v>151</v>
+      </c>
+      <c r="H203">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45679.52013888889</v>
+      </c>
+      <c r="D204" t="s">
+        <v>141</v>
+      </c>
+      <c r="E204" t="s">
+        <v>146</v>
+      </c>
+      <c r="F204" t="s">
+        <v>150</v>
+      </c>
+      <c r="G204" t="s">
+        <v>151</v>
+      </c>
+      <c r="H204">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45692.57569444444</v>
+      </c>
+      <c r="D205" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" t="s">
+        <v>146</v>
+      </c>
+      <c r="F205" t="s">
+        <v>150</v>
+      </c>
+      <c r="G205" t="s">
+        <v>151</v>
+      </c>
+      <c r="H205">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45699.49861111111</v>
+      </c>
+      <c r="D206" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" t="s">
+        <v>146</v>
+      </c>
+      <c r="F206" t="s">
+        <v>150</v>
+      </c>
+      <c r="G206" t="s">
+        <v>151</v>
+      </c>
+      <c r="H206">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45706.53333333333</v>
+      </c>
+      <c r="D207" t="s">
+        <v>32</v>
+      </c>
+      <c r="E207" t="s">
+        <v>146</v>
+      </c>
+      <c r="F207" t="s">
+        <v>150</v>
+      </c>
+      <c r="G207" t="s">
+        <v>151</v>
+      </c>
+      <c r="H207">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45713.50555555556</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>146</v>
+      </c>
+      <c r="F208" t="s">
+        <v>150</v>
+      </c>
+      <c r="G208" t="s">
+        <v>151</v>
+      </c>
+      <c r="H208">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45721.55347222222</v>
+      </c>
+      <c r="D209" t="s">
+        <v>142</v>
+      </c>
+      <c r="E209" t="s">
+        <v>146</v>
+      </c>
+      <c r="F209" t="s">
+        <v>150</v>
+      </c>
+      <c r="G209" t="s">
+        <v>151</v>
+      </c>
+      <c r="H209">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45727.52916666667</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" t="s">
+        <v>150</v>
+      </c>
+      <c r="G210" t="s">
+        <v>151</v>
+      </c>
+      <c r="H210">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45734.48888888889</v>
+      </c>
+      <c r="D211" t="s">
+        <v>136</v>
+      </c>
+      <c r="E211" t="s">
+        <v>146</v>
+      </c>
+      <c r="F211" t="s">
+        <v>150</v>
+      </c>
+      <c r="G211" t="s">
+        <v>151</v>
+      </c>
+      <c r="H211">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45741.51527777778</v>
+      </c>
+      <c r="D212" t="s">
+        <v>48</v>
+      </c>
+      <c r="E212" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" t="s">
+        <v>150</v>
+      </c>
+      <c r="G212" t="s">
+        <v>151</v>
+      </c>
+      <c r="H212">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45748.52777777778</v>
+      </c>
+      <c r="D213" t="s">
+        <v>143</v>
+      </c>
+      <c r="E213" t="s">
+        <v>146</v>
+      </c>
+      <c r="F213" t="s">
+        <v>150</v>
+      </c>
+      <c r="G213" t="s">
+        <v>151</v>
+      </c>
+      <c r="H213">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45756.56388888889</v>
+      </c>
+      <c r="D214" t="s">
+        <v>56</v>
+      </c>
+      <c r="E214" t="s">
+        <v>146</v>
+      </c>
+      <c r="F214" t="s">
+        <v>150</v>
+      </c>
+      <c r="G214" t="s">
+        <v>151</v>
+      </c>
+      <c r="H214">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45762.52083333334</v>
+      </c>
+      <c r="D215" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215" t="s">
+        <v>146</v>
+      </c>
+      <c r="F215" t="s">
+        <v>150</v>
+      </c>
+      <c r="G215" t="s">
+        <v>151</v>
+      </c>
+      <c r="H215">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45770.55555555555</v>
+      </c>
+      <c r="D216" t="s">
+        <v>144</v>
+      </c>
+      <c r="E216" t="s">
+        <v>146</v>
+      </c>
+      <c r="F216" t="s">
+        <v>150</v>
+      </c>
+      <c r="G216" t="s">
+        <v>151</v>
+      </c>
+      <c r="H216">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45776.55833333333</v>
+      </c>
+      <c r="D217" t="s">
+        <v>145</v>
+      </c>
+      <c r="E217" t="s">
+        <v>146</v>
+      </c>
+      <c r="F217" t="s">
+        <v>150</v>
+      </c>
+      <c r="G217" t="s">
+        <v>151</v>
+      </c>
+      <c r="H217">
         <v>600</v>
       </c>
     </row>
